--- a/data/Computer_ratings_150machinepoems.xlsx
+++ b/data/Computer_ratings_150machinepoems.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt235\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="0" windowWidth="40580" windowHeight="26220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1838,8 +1843,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,6 +1920,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2242,17 +2255,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2543,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2572,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2630,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3094,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3123,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4080,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4312,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4486,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5037,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5095,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5269,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6197,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
